--- a/src/test/resources/Documents/1076/Actual/JobMaterial.xlsx
+++ b/src/test/resources/Documents/1076/Actual/JobMaterial.xlsx
@@ -53,33 +53,33 @@
     <t>Flexo press 4x0</t>
   </si>
   <si>
+    <t xml:space="preserve">Magenta - UV - </t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>10001836 - 9442 PRO MAGENTA BW5 UV - INK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow - UV - </t>
+  </si>
+  <si>
+    <t>10001305 - PROCESS YELLOW C UV</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cyan - UV - </t>
   </si>
   <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>lbs</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>10001837 - 9443 PRO CYAN BW8 UV - INK</t>
   </si>
   <si>
-    <t xml:space="preserve">Yellow - UV - </t>
-  </si>
-  <si>
-    <t>10001305 - PROCESS YELLOW C UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magenta - UV - </t>
-  </si>
-  <si>
-    <t>10001836 - 9442 PRO MAGENTA BW5 UV - INK</t>
-  </si>
-  <si>
     <t xml:space="preserve">Black - UV - </t>
   </si>
   <si>
@@ -89,19 +89,19 @@
     <t>Glue 0x0 (Varnish 1x1)</t>
   </si>
   <si>
+    <t>Adhesive</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>10001053 - RAVENWOOD LINERLESS-ADHESIVE - 7445HD</t>
+  </si>
+  <si>
     <t>Silicone</t>
   </si>
   <si>
-    <t>0.22</t>
-  </si>
-  <si>
     <t>10016451 - Evonik RW 10 Teco RC Silicone</t>
-  </si>
-  <si>
-    <t>Adhesive</t>
-  </si>
-  <si>
-    <t>10001053 - RAVENWOOD LINERLESS-ADHESIVE - 7445HD</t>
   </si>
   <si>
     <t>Roll</t>

--- a/src/test/resources/Documents/1076/Actual/JobMaterial.xlsx
+++ b/src/test/resources/Documents/1076/Actual/JobMaterial.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>Materialtype</t>
   </si>
@@ -50,67 +50,70 @@
     <t>Linerless Labels  2p</t>
   </si>
   <si>
-    <t>Flexo press 4x0</t>
+    <t>Flexo press 5x0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANTONE Yellow U  - UV - </t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow - UV - </t>
+  </si>
+  <si>
+    <t>10001305 - PROCESS YELLOW C UV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black - UV - </t>
+  </si>
+  <si>
+    <t>10001817 - 9409 MIXING BLACK UV - INK</t>
   </si>
   <si>
     <t xml:space="preserve">Magenta - UV - </t>
   </si>
   <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>lbs</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>10001836 - 9442 PRO MAGENTA BW5 UV - INK</t>
   </si>
   <si>
-    <t xml:space="preserve">Yellow - UV - </t>
-  </si>
-  <si>
-    <t>10001305 - PROCESS YELLOW C UV</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cyan - UV - </t>
   </si>
   <si>
     <t>10001837 - 9443 PRO CYAN BW8 UV - INK</t>
   </si>
   <si>
-    <t xml:space="preserve">Black - UV - </t>
-  </si>
-  <si>
-    <t>10001817 - 9409 MIXING BLACK UV - INK</t>
-  </si>
-  <si>
     <t>Glue 0x0 (Varnish 1x1)</t>
   </si>
   <si>
+    <t>Silicone</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>10016451 - Evonik RW 10 Teco RC Silicone</t>
+  </si>
+  <si>
     <t>Adhesive</t>
   </si>
   <si>
-    <t>0.22</t>
-  </si>
-  <si>
     <t>10001053 - RAVENWOOD LINERLESS-ADHESIVE - 7445HD</t>
   </si>
   <si>
-    <t>Silicone</t>
-  </si>
-  <si>
-    <t>10016451 - Evonik RW 10 Teco RC Silicone</t>
-  </si>
-  <si>
     <t>Roll</t>
   </si>
   <si>
     <t>CGS360 3.6M CLEAR BOPP - 2.95 pt 13.5" 680 ppi</t>
   </si>
   <si>
-    <t>728.16</t>
+    <t>752.46</t>
   </si>
   <si>
     <t>M inch²</t>
@@ -121,13 +124,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="58">
+  <fonts count="66">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -435,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -494,6 +537,14 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -561,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="H2" t="s" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -575,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s" s="13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s" s="14">
         <v>14</v>
@@ -587,7 +638,7 @@
         <v>16</v>
       </c>
       <c r="H3" t="s" s="17">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -601,7 +652,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s" s="21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="22">
         <v>14</v>
@@ -613,7 +664,7 @@
         <v>16</v>
       </c>
       <c r="H4" t="s" s="25">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -627,7 +678,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s" s="29">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s" s="30">
         <v>14</v>
@@ -639,7 +690,7 @@
         <v>16</v>
       </c>
       <c r="H5" t="s" s="33">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -650,13 +701,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s" s="36">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s" s="37">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s" s="38">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s" s="39">
         <v>15</v>
@@ -665,7 +716,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s" s="41">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -676,13 +727,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="s" s="44">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s" s="45">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s" s="46">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s" s="47">
         <v>15</v>
@@ -691,32 +742,58 @@
         <v>16</v>
       </c>
       <c r="H7" t="s" s="49">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="50">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s" s="51">
         <v>11</v>
       </c>
       <c r="C8" t="s" s="52">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s" s="53">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s" s="54">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s" s="55">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s" s="56">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="58">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s" s="59">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s" s="60">
         <v>12</v>
       </c>
-      <c r="D8" t="s" s="53">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s" s="54">
+      <c r="D9" t="s" s="61">
         <v>32</v>
       </c>
-      <c r="F8" t="s" s="55">
+      <c r="E9" t="s" s="62">
         <v>33</v>
       </c>
-      <c r="G8" t="s" s="56">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s" s="57">
+      <c r="F9" t="s" s="63">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s" s="64">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="65">
         <v>16</v>
       </c>
     </row>

--- a/src/test/resources/Documents/1076/Actual/JobMaterial.xlsx
+++ b/src/test/resources/Documents/1076/Actual/JobMaterial.xlsx
@@ -65,46 +65,46 @@
     <t/>
   </si>
   <si>
+    <t xml:space="preserve">Black - UV - </t>
+  </si>
+  <si>
+    <t>10001817 - 9409 MIXING BLACK UV - INK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyan - UV - </t>
+  </si>
+  <si>
+    <t>10001837 - 9443 PRO CYAN BW8 UV - INK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yellow - UV - </t>
   </si>
   <si>
     <t>10001305 - PROCESS YELLOW C UV</t>
   </si>
   <si>
-    <t xml:space="preserve">Black - UV - </t>
-  </si>
-  <si>
-    <t>10001817 - 9409 MIXING BLACK UV - INK</t>
-  </si>
-  <si>
     <t xml:space="preserve">Magenta - UV - </t>
   </si>
   <si>
     <t>10001836 - 9442 PRO MAGENTA BW5 UV - INK</t>
   </si>
   <si>
-    <t xml:space="preserve">Cyan - UV - </t>
-  </si>
-  <si>
-    <t>10001837 - 9443 PRO CYAN BW8 UV - INK</t>
-  </si>
-  <si>
     <t>Glue 0x0 (Varnish 1x1)</t>
   </si>
   <si>
+    <t>Adhesive</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>10001053 - RAVENWOOD LINERLESS-ADHESIVE - 7445HD</t>
+  </si>
+  <si>
     <t>Silicone</t>
   </si>
   <si>
-    <t>0.22</t>
-  </si>
-  <si>
     <t>10016451 - Evonik RW 10 Teco RC Silicone</t>
-  </si>
-  <si>
-    <t>Adhesive</t>
-  </si>
-  <si>
-    <t>10001053 - RAVENWOOD LINERLESS-ADHESIVE - 7445HD</t>
   </si>
   <si>
     <t>Roll</t>

--- a/src/test/resources/Documents/1076/Actual/JobMaterial.xlsx
+++ b/src/test/resources/Documents/1076/Actual/JobMaterial.xlsx
@@ -53,16 +53,28 @@
     <t>Flexo press 5x0</t>
   </si>
   <si>
+    <t xml:space="preserve">Magenta - UV - </t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>10001836 - 9442 PRO MAGENTA BW5 UV - INK</t>
+  </si>
+  <si>
     <t xml:space="preserve">PANTONE Yellow U  - UV - </t>
   </si>
   <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>lbs</t>
-  </si>
-  <si>
-    <t/>
+    <t xml:space="preserve">Cyan - UV - </t>
+  </si>
+  <si>
+    <t>10001837 - 9443 PRO CYAN BW8 UV - INK</t>
   </si>
   <si>
     <t xml:space="preserve">Black - UV - </t>
@@ -71,40 +83,28 @@
     <t>10001817 - 9409 MIXING BLACK UV - INK</t>
   </si>
   <si>
-    <t xml:space="preserve">Cyan - UV - </t>
-  </si>
-  <si>
-    <t>10001837 - 9443 PRO CYAN BW8 UV - INK</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yellow - UV - </t>
   </si>
   <si>
     <t>10001305 - PROCESS YELLOW C UV</t>
   </si>
   <si>
-    <t xml:space="preserve">Magenta - UV - </t>
-  </si>
-  <si>
-    <t>10001836 - 9442 PRO MAGENTA BW5 UV - INK</t>
-  </si>
-  <si>
     <t>Glue 0x0 (Varnish 1x1)</t>
   </si>
   <si>
+    <t>Silicone</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>10016451 - Evonik RW 10 Teco RC Silicone</t>
+  </si>
+  <si>
     <t>Adhesive</t>
   </si>
   <si>
-    <t>0.22</t>
-  </si>
-  <si>
     <t>10001053 - RAVENWOOD LINERLESS-ADHESIVE - 7445HD</t>
-  </si>
-  <si>
-    <t>Silicone</t>
-  </si>
-  <si>
-    <t>10016451 - Evonik RW 10 Teco RC Silicone</t>
   </si>
   <si>
     <t>Roll</t>
@@ -612,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="H2" t="s" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s" s="14">
         <v>14</v>
@@ -638,7 +638,7 @@
         <v>16</v>
       </c>
       <c r="H3" t="s" s="17">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
